--- a/ENC/EMD Format Anand sir ORG 24.01.2025 Jit.xlsx
+++ b/ENC/EMD Format Anand sir ORG 24.01.2025 Jit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ehrms\eoffice-git\eoffice\ENC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216AE3CE-0FB9-4937-A6DA-1A65472F2CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13D9911-B7EB-4582-B8BD-79594705DC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1569,7 +1569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1634,12 +1634,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1922,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,22 +1967,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H4" s="1"/>
@@ -2042,7 +2064,7 @@
       <c r="M6" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="22" t="s">
         <v>15</v>
       </c>
       <c r="O6" s="9" t="s">
@@ -2070,7 +2092,9 @@
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
+      <c r="J7" s="18">
+        <v>9399507976</v>
+      </c>
       <c r="K7" s="19" t="s">
         <v>26</v>
       </c>
@@ -2080,7 +2104,7 @@
       <c r="M7" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="22" t="s">
         <v>23</v>
       </c>
       <c r="O7" s="13" t="s">
@@ -2120,7 +2144,7 @@
       <c r="M8" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="22">
         <v>11010080557</v>
       </c>
       <c r="O8" s="9" t="s">
@@ -2160,7 +2184,7 @@
       <c r="M9" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="22">
         <v>16310010004</v>
       </c>
       <c r="O9" s="9" t="s">
@@ -2200,7 +2224,7 @@
       <c r="M10" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="22">
         <v>14310010068</v>
       </c>
       <c r="O10" s="9" t="s">
@@ -2240,7 +2264,7 @@
       <c r="M11" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="22">
         <v>13310040005</v>
       </c>
       <c r="O11" s="13" t="s">
@@ -2280,7 +2304,7 @@
       <c r="M12" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="22" t="s">
         <v>45</v>
       </c>
       <c r="O12" s="9" t="s">
@@ -2320,7 +2344,7 @@
       <c r="M13" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="22">
         <v>11310200002</v>
       </c>
       <c r="O13" s="9" t="s">
@@ -2360,7 +2384,7 @@
       <c r="M14" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="22" t="s">
         <v>55</v>
       </c>
       <c r="O14" s="9" t="s">
@@ -2400,7 +2424,7 @@
       <c r="M15" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="22">
         <v>15220230448</v>
       </c>
       <c r="O15" s="9" t="s">
@@ -2440,7 +2464,7 @@
       <c r="M16" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="22">
         <v>66190100076</v>
       </c>
       <c r="O16" s="9" t="s">
@@ -2480,7 +2504,7 @@
       <c r="M17" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="22">
         <v>66190150002</v>
       </c>
       <c r="O17" s="9" t="s">
@@ -2520,7 +2544,7 @@
       <c r="M18" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N18" s="23" t="s">
+      <c r="N18" s="22" t="s">
         <v>71</v>
       </c>
       <c r="O18" s="9" t="s">
@@ -2560,7 +2584,7 @@
       <c r="M19" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="22">
         <v>66190100085</v>
       </c>
       <c r="O19" s="9" t="s">
@@ -2600,7 +2624,7 @@
       <c r="M20" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="22">
         <v>66190030040</v>
       </c>
       <c r="O20" s="9" t="s">
@@ -2640,7 +2664,7 @@
       <c r="M21" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="N21" s="22" t="s">
         <v>84</v>
       </c>
       <c r="O21" s="9" t="s">
@@ -2680,7 +2704,7 @@
       <c r="M22" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="22">
         <v>11310260002</v>
       </c>
       <c r="O22" s="9" t="s">
@@ -2720,7 +2744,7 @@
       <c r="M23" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N23" s="22">
         <v>66310100235</v>
       </c>
       <c r="O23" s="9" t="s">
@@ -2760,7 +2784,7 @@
       <c r="M24" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N24" s="22">
         <v>11310200172</v>
       </c>
       <c r="O24" s="9" t="s">
@@ -2800,7 +2824,7 @@
       <c r="M25" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="22">
         <v>11310200174</v>
       </c>
       <c r="O25" s="9" t="s">
@@ -2840,7 +2864,7 @@
       <c r="M26" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N26" s="22">
         <v>11310200170</v>
       </c>
       <c r="O26" s="9" t="s">
@@ -2880,7 +2904,7 @@
       <c r="M27" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="22">
         <v>11310200176</v>
       </c>
       <c r="O27" s="9" t="s">
@@ -2920,7 +2944,7 @@
       <c r="M28" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="22">
         <v>11310200166</v>
       </c>
       <c r="O28" s="9" t="s">
@@ -2960,7 +2984,7 @@
       <c r="M29" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="22">
         <v>11310200171</v>
       </c>
       <c r="O29" s="9" t="s">
@@ -3000,7 +3024,7 @@
       <c r="M30" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N30" s="23">
+      <c r="N30" s="22">
         <v>11310200167</v>
       </c>
       <c r="O30" s="9" t="s">
@@ -3040,7 +3064,7 @@
       <c r="M31" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N31" s="23">
+      <c r="N31" s="22">
         <v>11310200175</v>
       </c>
       <c r="O31" s="9" t="s">
@@ -3080,7 +3104,7 @@
       <c r="M32" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N32" s="23">
+      <c r="N32" s="22">
         <v>11310200168</v>
       </c>
       <c r="O32" s="9" t="s">
@@ -3120,7 +3144,7 @@
       <c r="M33" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N33" s="23">
+      <c r="N33" s="22">
         <v>11310200177</v>
       </c>
       <c r="O33" s="9" t="s">
@@ -3160,7 +3184,7 @@
       <c r="M34" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N34" s="23">
+      <c r="N34" s="22">
         <v>11310200169</v>
       </c>
       <c r="O34" s="9" t="s">
@@ -3200,7 +3224,7 @@
       <c r="M35" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N35" s="23" t="s">
+      <c r="N35" s="22" t="s">
         <v>127</v>
       </c>
       <c r="O35" s="9" t="s">
@@ -3240,7 +3264,7 @@
       <c r="M36" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N36" s="23">
+      <c r="N36" s="22">
         <v>18310010030</v>
       </c>
       <c r="O36" s="13" t="s">
@@ -3280,7 +3304,7 @@
       <c r="M37" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N37" s="23" t="s">
+      <c r="N37" s="22" t="s">
         <v>136</v>
       </c>
       <c r="O37" s="13" t="s">
@@ -3320,7 +3344,7 @@
       <c r="M38" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N38" s="23">
+      <c r="N38" s="22">
         <v>15220170423</v>
       </c>
       <c r="O38" s="9" t="s">
@@ -3360,7 +3384,7 @@
       <c r="M39" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N39" s="23">
+      <c r="N39" s="22">
         <v>13310040413</v>
       </c>
       <c r="O39" s="9" t="s">
@@ -3400,7 +3424,7 @@
       <c r="M40" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N40" s="23">
+      <c r="N40" s="22">
         <v>10310181383</v>
       </c>
       <c r="O40" s="9" t="s">
@@ -3440,7 +3464,7 @@
       <c r="M41" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N41" s="23">
+      <c r="N41" s="22">
         <v>11010080572</v>
       </c>
       <c r="O41" s="9" t="s">
@@ -3480,7 +3504,7 @@
       <c r="M42" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N42" s="23" t="s">
+      <c r="N42" s="22" t="s">
         <v>155</v>
       </c>
       <c r="O42" s="9" t="s">
@@ -3520,7 +3544,7 @@
       <c r="M43" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N43" s="23" t="s">
+      <c r="N43" s="22" t="s">
         <v>160</v>
       </c>
       <c r="O43" s="9" t="s">
@@ -3560,7 +3584,7 @@
       <c r="M44" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N44" s="23" t="s">
+      <c r="N44" s="22" t="s">
         <v>165</v>
       </c>
       <c r="O44" s="9" t="s">
@@ -3600,7 +3624,7 @@
       <c r="M45" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N45" s="23" t="s">
+      <c r="N45" s="22" t="s">
         <v>170</v>
       </c>
       <c r="O45" s="9" t="s">
@@ -3640,7 +3664,7 @@
       <c r="M46" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N46" s="23" t="s">
+      <c r="N46" s="22" t="s">
         <v>174</v>
       </c>
       <c r="O46" s="9" t="s">
@@ -3680,7 +3704,7 @@
       <c r="M47" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N47" s="23" t="s">
+      <c r="N47" s="22" t="s">
         <v>178</v>
       </c>
       <c r="O47" s="9" t="s">
@@ -3720,7 +3744,7 @@
       <c r="M48" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N48" s="23" t="s">
+      <c r="N48" s="22" t="s">
         <v>182</v>
       </c>
       <c r="O48" s="9" t="s">
@@ -3760,7 +3784,7 @@
       <c r="M49" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N49" s="23" t="s">
+      <c r="N49" s="22" t="s">
         <v>186</v>
       </c>
       <c r="O49" s="9" t="s">
@@ -3800,7 +3824,7 @@
       <c r="M50" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N50" s="23" t="s">
+      <c r="N50" s="22" t="s">
         <v>190</v>
       </c>
       <c r="O50" s="9" t="s">
@@ -3840,7 +3864,7 @@
       <c r="M51" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N51" s="23" t="s">
+      <c r="N51" s="22" t="s">
         <v>194</v>
       </c>
       <c r="O51" s="9" t="s">
@@ -3880,7 +3904,7 @@
       <c r="M52" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N52" s="23" t="s">
+      <c r="N52" s="22" t="s">
         <v>198</v>
       </c>
       <c r="O52" s="9" t="s">
@@ -3920,7 +3944,7 @@
       <c r="M53" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N53" s="23" t="s">
+      <c r="N53" s="22" t="s">
         <v>202</v>
       </c>
       <c r="O53" s="9" t="s">
@@ -3960,7 +3984,7 @@
       <c r="M54" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N54" s="23" t="s">
+      <c r="N54" s="22" t="s">
         <v>205</v>
       </c>
       <c r="O54" s="9" t="s">
@@ -4000,7 +4024,7 @@
       <c r="M55" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N55" s="23" t="s">
+      <c r="N55" s="22" t="s">
         <v>208</v>
       </c>
       <c r="O55" s="9" t="s">
@@ -4040,7 +4064,7 @@
       <c r="M56" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N56" s="23" t="s">
+      <c r="N56" s="22" t="s">
         <v>211</v>
       </c>
       <c r="O56" s="9" t="s">
@@ -4080,7 +4104,7 @@
       <c r="M57" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N57" s="23" t="s">
+      <c r="N57" s="22" t="s">
         <v>214</v>
       </c>
       <c r="O57" s="9" t="s">
@@ -4120,7 +4144,7 @@
       <c r="M58" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N58" s="23" t="s">
+      <c r="N58" s="22" t="s">
         <v>217</v>
       </c>
       <c r="O58" s="13" t="s">
@@ -4160,7 +4184,7 @@
       <c r="M59" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N59" s="23">
+      <c r="N59" s="22">
         <v>11310200063</v>
       </c>
       <c r="O59" s="9" t="s">
@@ -4200,7 +4224,7 @@
       <c r="M60" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N60" s="23" t="s">
+      <c r="N60" s="22" t="s">
         <v>226</v>
       </c>
       <c r="O60" s="9" t="s">
@@ -4240,7 +4264,7 @@
       <c r="M61" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N61" s="23" t="s">
+      <c r="N61" s="22" t="s">
         <v>230</v>
       </c>
       <c r="O61" s="9" t="s">
@@ -4280,7 +4304,7 @@
       <c r="M62" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N62" s="23" t="s">
+      <c r="N62" s="22" t="s">
         <v>234</v>
       </c>
       <c r="O62" s="9" t="s">
@@ -4320,7 +4344,7 @@
       <c r="M63" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N63" s="23" t="s">
+      <c r="N63" s="22" t="s">
         <v>239</v>
       </c>
       <c r="O63" s="9" t="s">
@@ -4360,7 +4384,7 @@
       <c r="M64" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N64" s="23" t="s">
+      <c r="N64" s="22" t="s">
         <v>243</v>
       </c>
       <c r="O64" s="9" t="s">
@@ -4400,7 +4424,7 @@
       <c r="M65" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N65" s="23" t="s">
+      <c r="N65" s="22" t="s">
         <v>247</v>
       </c>
       <c r="O65" s="9" t="s">
@@ -4440,7 +4464,7 @@
       <c r="M66" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N66" s="23" t="s">
+      <c r="N66" s="22" t="s">
         <v>253</v>
       </c>
       <c r="O66" s="9" t="s">
@@ -4480,7 +4504,7 @@
       <c r="M67" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N67" s="23" t="s">
+      <c r="N67" s="22" t="s">
         <v>258</v>
       </c>
       <c r="O67" s="9" t="s">
@@ -4520,7 +4544,7 @@
       <c r="M68" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N68" s="23" t="s">
+      <c r="N68" s="22" t="s">
         <v>263</v>
       </c>
       <c r="O68" s="9" t="s">
@@ -4560,7 +4584,7 @@
       <c r="M69" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N69" s="23" t="s">
+      <c r="N69" s="22" t="s">
         <v>267</v>
       </c>
       <c r="O69" s="9" t="s">
@@ -4600,7 +4624,7 @@
       <c r="M70" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N70" s="23" t="s">
+      <c r="N70" s="22" t="s">
         <v>271</v>
       </c>
       <c r="O70" s="9" t="s">
@@ -4640,7 +4664,7 @@
       <c r="M71" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N71" s="23">
+      <c r="N71" s="22">
         <v>11310200075</v>
       </c>
       <c r="O71" s="9" t="s">
@@ -4680,7 +4704,7 @@
       <c r="M72" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N72" s="23">
+      <c r="N72" s="22">
         <v>15220100013</v>
       </c>
       <c r="O72" s="9" t="s">
@@ -4720,7 +4744,7 @@
       <c r="M73" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N73" s="23">
+      <c r="N73" s="22">
         <v>11310200122</v>
       </c>
       <c r="O73" s="9" t="s">
@@ -4760,7 +4784,7 @@
       <c r="M74" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N74" s="23">
+      <c r="N74" s="22">
         <v>11310200119</v>
       </c>
       <c r="O74" s="9" t="s">
@@ -4800,7 +4824,7 @@
       <c r="M75" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N75" s="23">
+      <c r="N75" s="22">
         <v>11310200135</v>
       </c>
       <c r="O75" s="9" t="s">
@@ -4840,7 +4864,7 @@
       <c r="M76" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N76" s="23">
+      <c r="N76" s="22">
         <v>66400070017</v>
       </c>
       <c r="O76" s="9" t="s">
@@ -4880,7 +4904,7 @@
       <c r="M77" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N77" s="23">
+      <c r="N77" s="22">
         <v>11310200147</v>
       </c>
       <c r="O77" s="9" t="s">
@@ -4920,7 +4944,7 @@
       <c r="M78" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N78" s="23">
+      <c r="N78" s="22">
         <v>11310200158</v>
       </c>
       <c r="O78" s="9" t="s">
@@ -4960,7 +4984,7 @@
       <c r="M79" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N79" s="23">
+      <c r="N79" s="22">
         <v>11310210032</v>
       </c>
       <c r="O79" s="9" t="s">
@@ -5000,7 +5024,7 @@
       <c r="M80" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N80" s="23" t="s">
+      <c r="N80" s="22" t="s">
         <v>308</v>
       </c>
       <c r="O80" s="9" t="s">
@@ -5040,7 +5064,7 @@
       <c r="M81" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N81" s="23">
+      <c r="N81" s="22">
         <v>66310020180</v>
       </c>
       <c r="O81" s="9" t="s">
@@ -5080,7 +5104,7 @@
       <c r="M82" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N82" s="23">
+      <c r="N82" s="22">
         <v>11310200142</v>
       </c>
       <c r="O82" s="9" t="s">
@@ -5120,7 +5144,7 @@
       <c r="M83" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N83" s="23">
+      <c r="N83" s="22">
         <v>11310200148</v>
       </c>
       <c r="O83" s="9" t="s">
@@ -5160,7 +5184,7 @@
       <c r="M84" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N84" s="23">
+      <c r="N84" s="22">
         <v>11310200149</v>
       </c>
       <c r="O84" s="9" t="s">
@@ -5200,7 +5224,7 @@
       <c r="M85" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N85" s="23">
+      <c r="N85" s="22">
         <v>11310200152</v>
       </c>
       <c r="O85" s="9" t="s">
@@ -5240,7 +5264,7 @@
       <c r="M86" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N86" s="23">
+      <c r="N86" s="22">
         <v>11310200153</v>
       </c>
       <c r="O86" s="9" t="s">
@@ -5280,7 +5304,7 @@
       <c r="M87" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N87" s="23" t="s">
+      <c r="N87" s="22" t="s">
         <v>332</v>
       </c>
       <c r="O87" s="9" t="s">
@@ -5320,7 +5344,7 @@
       <c r="M88" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N88" s="23">
+      <c r="N88" s="22">
         <v>66310250002</v>
       </c>
       <c r="O88" s="9" t="s">
@@ -5360,7 +5384,7 @@
       <c r="M89" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N89" s="23">
+      <c r="N89" s="22">
         <v>66310250004</v>
       </c>
       <c r="O89" s="9" t="s">
@@ -5400,7 +5424,7 @@
       <c r="M90" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N90" s="23">
+      <c r="N90" s="22">
         <v>66310250003</v>
       </c>
       <c r="O90" s="9" t="s">
@@ -5440,7 +5464,7 @@
       <c r="M91" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N91" s="23">
+      <c r="N91" s="22">
         <v>66310250005</v>
       </c>
       <c r="O91" s="9" t="s">
@@ -5480,7 +5504,7 @@
       <c r="M92" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N92" s="23" t="s">
+      <c r="N92" s="22" t="s">
         <v>346</v>
       </c>
       <c r="O92" s="9" t="s">
@@ -5520,7 +5544,7 @@
       <c r="M93" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N93" s="23">
+      <c r="N93" s="22">
         <v>11310200099</v>
       </c>
       <c r="O93" s="9" t="s">
@@ -5560,7 +5584,7 @@
       <c r="M94" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N94" s="23">
+      <c r="N94" s="22">
         <v>11310200098</v>
       </c>
       <c r="O94" s="9" t="s">
@@ -5600,50 +5624,50 @@
       <c r="M95" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N95" s="23">
+      <c r="N95" s="22">
         <v>66220010018</v>
       </c>
       <c r="O95" s="9" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="96" spans="2:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="6">
+    <row r="96" spans="2:15" s="31" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="24">
         <v>91</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" s="12" t="s">
+      <c r="D96" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="F96" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" s="21" t="s">
+      <c r="F96" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="11">
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="25">
         <v>8827257670</v>
       </c>
-      <c r="K96" s="12" t="s">
+      <c r="K96" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="L96" s="9" t="s">
+      <c r="L96" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="M96" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="N96" s="23" t="s">
+      <c r="M96" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="N96" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="O96" s="9" t="s">
+      <c r="O96" s="29" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5680,7 +5704,7 @@
       <c r="M97" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N97" s="23">
+      <c r="N97" s="22">
         <v>66310090053</v>
       </c>
       <c r="O97" s="9" t="s">
@@ -5720,7 +5744,7 @@
       <c r="M98" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N98" s="23">
+      <c r="N98" s="22">
         <v>11010080540</v>
       </c>
       <c r="O98" s="9" t="s">
@@ -5760,7 +5784,7 @@
       <c r="M99" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N99" s="23" t="s">
+      <c r="N99" s="22" t="s">
         <v>375</v>
       </c>
       <c r="O99" s="9" t="s">
@@ -5800,7 +5824,7 @@
       <c r="M100" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N100" s="23">
+      <c r="N100" s="22">
         <v>10310150255</v>
       </c>
       <c r="O100" s="9" t="s">
@@ -5840,7 +5864,7 @@
       <c r="M101" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N101" s="23">
+      <c r="N101" s="22">
         <v>13310060076</v>
       </c>
       <c r="O101" s="9" t="s">
@@ -5880,7 +5904,7 @@
       <c r="M102" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N102" s="23">
+      <c r="N102" s="22">
         <v>13310010036</v>
       </c>
       <c r="O102" s="9" t="s">
@@ -5920,7 +5944,7 @@
       <c r="M103" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N103" s="23">
+      <c r="N103" s="22">
         <v>11310200123</v>
       </c>
       <c r="O103" s="9" t="s">
@@ -5960,7 +5984,7 @@
       <c r="M104" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N104" s="23">
+      <c r="N104" s="22">
         <v>11310200155</v>
       </c>
       <c r="O104" s="9" t="s">
@@ -6000,7 +6024,7 @@
       <c r="M105" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N105" s="23">
+      <c r="N105" s="22">
         <v>11310200157</v>
       </c>
       <c r="O105" s="9" t="s">
@@ -6040,7 +6064,7 @@
       <c r="M106" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="N106" s="23">
+      <c r="N106" s="22">
         <v>11310200126</v>
       </c>
       <c r="O106" s="9" t="s">

--- a/ENC/EMD Format Anand sir ORG 24.01.2025 Jit.xlsx
+++ b/ENC/EMD Format Anand sir ORG 24.01.2025 Jit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ehrms\eoffice-git\eoffice\ENC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13D9911-B7EB-4582-B8BD-79594705DC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B94E6B0-4620-41F6-BFFB-634906392F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1637,9 +1637,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1662,6 +1659,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1944,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L99" sqref="L99"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,22 +1967,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H4" s="1"/>
@@ -5631,43 +5631,43 @@
         <v>360</v>
       </c>
     </row>
-    <row r="96" spans="2:15" s="31" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="24">
+    <row r="96" spans="2:15" s="30" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="23">
         <v>91</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C96" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="D96" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" s="26" t="s">
+      <c r="D96" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="F96" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" s="27" t="s">
+      <c r="F96" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="25">
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="24">
         <v>8827257670</v>
       </c>
-      <c r="K96" s="26" t="s">
+      <c r="K96" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="L96" s="29" t="s">
+      <c r="L96" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="M96" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="N96" s="30" t="s">
+      <c r="M96" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="N96" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="O96" s="29" t="s">
+      <c r="O96" s="28" t="s">
         <v>366</v>
       </c>
     </row>
